--- a/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica2.xlsx
+++ b/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anxoc\OneDrive\Escritorio\DAM 23-24\DAM-23-24\Bases de datos\1ªEvaluación\Ejercicios(FN)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F28CD6-4086-4C47-AB04-C17E2DBEB688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20333BD6-9C9E-465B-A0D2-76C15489FBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{BC5F3012-9009-45C7-A759-13AFE07C2B70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC5F3012-9009-45C7-A759-13AFE07C2B70}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,57 +25,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
-  <si>
-    <t>id_orden</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>id_cliente</t>
-  </si>
-  <si>
-    <t>Nom_cliente</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Num_art</t>
-  </si>
-  <si>
-    <t>nom_art</t>
-  </si>
-  <si>
-    <t>cant</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Caracas</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Raqueta</t>
-  </si>
-  <si>
-    <t>Paq-3</t>
-  </si>
-  <si>
-    <t>Herman</t>
-  </si>
-  <si>
-    <t>Coro</t>
-  </si>
-  <si>
-    <t>Paq-6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+  <si>
+    <t>codLibro</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>nombreLector</t>
+  </si>
+  <si>
+    <t>FechaDev</t>
+  </si>
+  <si>
+    <t>Variable compleja</t>
+  </si>
+  <si>
+    <t>Murray Spiegel</t>
+  </si>
+  <si>
+    <t>McGraw Hill</t>
+  </si>
+  <si>
+    <t>Pereza Gomez Juan</t>
+  </si>
+  <si>
+    <t>Visual Basic 5</t>
+  </si>
+  <si>
+    <t>E. Petroustsos</t>
+  </si>
+  <si>
+    <t>Anaya</t>
+  </si>
+  <si>
+    <t>Rios Terán, Ana</t>
+  </si>
+  <si>
+    <t>Estadistica</t>
+  </si>
+  <si>
+    <t>Roca, René</t>
+  </si>
+  <si>
+    <t>Oracle University</t>
+  </si>
+  <si>
+    <t>Nancy Greenberg y Priya Nathan</t>
+  </si>
+  <si>
+    <t>Oracle Corp</t>
+  </si>
+  <si>
+    <t>Garcia Roque, Luis</t>
+  </si>
+  <si>
+    <t>Clipper 5.01</t>
+  </si>
+  <si>
+    <t>Ramalho</t>
+  </si>
+  <si>
+    <t>Ejercicio 8</t>
+  </si>
+  <si>
+    <t>1FN</t>
   </si>
 </sst>
 </file>
@@ -444,17 +465,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54E09B0-B9CE-4E9B-8886-EAB688E52118}">
-  <dimension ref="A4:I9"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
@@ -474,134 +503,253 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2301</v>
-      </c>
-      <c r="B5" s="2">
-        <v>40597</v>
-      </c>
-      <c r="C5">
-        <v>101</v>
+        <v>1001</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>3786</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>35</v>
+      <c r="F5" s="2">
+        <v>38457</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2301</v>
-      </c>
-      <c r="B6" s="2">
-        <v>40597</v>
-      </c>
-      <c r="C6">
-        <v>101</v>
+        <v>1004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>4011</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>65</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>38459</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2301</v>
-      </c>
-      <c r="B7" s="2">
-        <v>40597</v>
-      </c>
-      <c r="C7">
-        <v>101</v>
+        <v>1005</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>9132</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>4.75</v>
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>38458</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2302</v>
-      </c>
-      <c r="B8" s="2">
-        <v>40749</v>
-      </c>
-      <c r="C8">
-        <v>107</v>
+        <v>1006</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
       <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
+        <v>38462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>38460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>1001</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2">
+        <v>38457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1004</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>1004</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2">
+        <v>38459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1005</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>1005</v>
+      </c>
+      <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="F8">
-        <v>5794</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H16" s="2">
+        <v>38458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1006</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>1006</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2">
+        <v>38462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1007</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2">
+        <v>38460</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica2.xlsx
+++ b/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anxoc\OneDrive\Escritorio\DAM 23-24\DAM-23-24\Bases de datos\1ªEvaluación\Ejercicios(FN)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20333BD6-9C9E-465B-A0D2-76C15489FBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703A1844-DE79-427C-A743-9038198A9CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC5F3012-9009-45C7-A759-13AFE07C2B70}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>codLibro</t>
   </si>
@@ -97,6 +97,93 @@
   </si>
   <si>
     <t>1FN</t>
+  </si>
+  <si>
+    <t>2FN</t>
+  </si>
+  <si>
+    <t>3FN</t>
+  </si>
+  <si>
+    <t>Con lo de abajo que está completo</t>
+  </si>
+  <si>
+    <t>Ejercicio 9</t>
+  </si>
+  <si>
+    <t>DNI_prof</t>
+  </si>
+  <si>
+    <t>Nombre_prof</t>
+  </si>
+  <si>
+    <t>Despacho_prof</t>
+  </si>
+  <si>
+    <t>Recurso</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Fec_inicio</t>
+  </si>
+  <si>
+    <t>Fec_fin</t>
+  </si>
+  <si>
+    <t>P.Martinez</t>
+  </si>
+  <si>
+    <t>R122</t>
+  </si>
+  <si>
+    <t>Tablet PC</t>
+  </si>
+  <si>
+    <t>L.Moreno</t>
+  </si>
+  <si>
+    <t>R100</t>
+  </si>
+  <si>
+    <t>Impresora</t>
+  </si>
+  <si>
+    <t>R200</t>
+  </si>
+  <si>
+    <t>Portatil</t>
+  </si>
+  <si>
+    <t>E.Castro</t>
+  </si>
+  <si>
+    <t>2.2 B23</t>
+  </si>
+  <si>
+    <t>2.2 B05</t>
+  </si>
+  <si>
+    <t>2.2 A10</t>
+  </si>
+  <si>
+    <t>D.Cuadra</t>
+  </si>
+  <si>
+    <t>2.1 B23</t>
+  </si>
+  <si>
+    <t>R300</t>
+  </si>
+  <si>
+    <t>Scaner</t>
+  </si>
+  <si>
+    <t>F.Calle</t>
+  </si>
+  <si>
+    <t>2.1 C11</t>
   </si>
 </sst>
 </file>
@@ -465,17 +552,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54E09B0-B9CE-4E9B-8886-EAB688E52118}">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -611,6 +698,15 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -749,6 +845,322 @@
       </c>
       <c r="H18" s="2">
         <v>38460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>33456456</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="2">
+        <v>39083</v>
+      </c>
+      <c r="G24" s="2">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>44556689</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2">
+        <v>39083</v>
+      </c>
+      <c r="G25" s="2">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>33456456</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="2">
+        <v>39094</v>
+      </c>
+      <c r="G26" s="2">
+        <v>39104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>11223344</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="2">
+        <v>39098</v>
+      </c>
+      <c r="G27" s="2">
+        <v>39113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>99771122</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="2">
+        <v>39105</v>
+      </c>
+      <c r="G28" s="2">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>33456456</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="2">
+        <v>39083</v>
+      </c>
+      <c r="G29" s="2">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>99887766</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="2">
+        <v>39114</v>
+      </c>
+      <c r="G30" s="2">
+        <v>39119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>33456456</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="2">
+        <v>39114</v>
+      </c>
+      <c r="G31" s="2">
+        <v>39119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33456456</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>44556689</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>33456456</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11223344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>99771122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>33456456</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>99887766</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>33456456</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica2.xlsx
+++ b/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anxoc\OneDrive\Escritorio\DAM 23-24\DAM-23-24\Bases de datos\1ªEvaluación\Ejercicios(FN)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703A1844-DE79-427C-A743-9038198A9CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC82D3CF-410C-4AC3-B383-2501D72E3BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC5F3012-9009-45C7-A759-13AFE07C2B70}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="73">
   <si>
     <t>codLibro</t>
   </si>
@@ -184,6 +184,66 @@
   </si>
   <si>
     <t>2.1 C11</t>
+  </si>
+  <si>
+    <t>Ejercicio 10</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Codigo_Tienda</t>
+  </si>
+  <si>
+    <t>Direccion_Tienda</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>P.Martin</t>
+  </si>
+  <si>
+    <t>100A</t>
+  </si>
+  <si>
+    <t>Avd Mayor 23, Alcorcón</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L.Sanz</t>
+  </si>
+  <si>
+    <t>D.Diaz</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>200B</t>
+  </si>
+  <si>
+    <t>C/Sur 13, Alcorcon</t>
+  </si>
+  <si>
+    <t>E.Lopez</t>
+  </si>
+  <si>
+    <t>300C</t>
+  </si>
+  <si>
+    <t>Pl.Central, Getafe</t>
+  </si>
+  <si>
+    <t>F.Monte</t>
   </si>
 </sst>
 </file>
@@ -233,11 +293,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54E09B0-B9CE-4E9B-8886-EAB688E52118}">
-  <dimension ref="A2:I43"/>
+  <dimension ref="A2:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +624,7 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1059,12 +1120,12 @@
         <v>39119</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1074,8 +1135,20 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33456456</v>
       </c>
@@ -1085,8 +1158,20 @@
       <c r="C36" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="2">
+        <v>39083</v>
+      </c>
+      <c r="H36" s="2">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>44556689</v>
       </c>
@@ -1096,8 +1181,20 @@
       <c r="C37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="2">
+        <v>39083</v>
+      </c>
+      <c r="H37" s="2">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33456456</v>
       </c>
@@ -1107,8 +1204,20 @@
       <c r="C38" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="2">
+        <v>39094</v>
+      </c>
+      <c r="H38" s="2">
+        <v>39104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11223344</v>
       </c>
@@ -1118,8 +1227,20 @@
       <c r="C39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="2">
+        <v>39098</v>
+      </c>
+      <c r="H39" s="2">
+        <v>39113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>99771122</v>
       </c>
@@ -1129,8 +1250,20 @@
       <c r="C40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="2">
+        <v>39105</v>
+      </c>
+      <c r="H40" s="2">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33456456</v>
       </c>
@@ -1140,8 +1273,20 @@
       <c r="C41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="2">
+        <v>39083</v>
+      </c>
+      <c r="H41" s="2">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>99887766</v>
       </c>
@@ -1151,8 +1296,20 @@
       <c r="C42" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="2">
+        <v>39114</v>
+      </c>
+      <c r="H42" s="2">
+        <v>39119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>33456456</v>
       </c>
@@ -1161,6 +1318,904 @@
       </c>
       <c r="C43" t="s">
         <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="2">
+        <v>39114</v>
+      </c>
+      <c r="H43" s="2">
+        <v>39119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>33456456</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48">
+        <v>33456456</v>
+      </c>
+      <c r="I48" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="2">
+        <v>39083</v>
+      </c>
+      <c r="K48" s="2">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44556689</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49">
+        <v>44556689</v>
+      </c>
+      <c r="I49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="2">
+        <v>39083</v>
+      </c>
+      <c r="K49" s="2">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>11223344</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50">
+        <v>33456456</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" s="2">
+        <v>39094</v>
+      </c>
+      <c r="K50" s="2">
+        <v>39104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>99771122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <v>11223344</v>
+      </c>
+      <c r="I51" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="2">
+        <v>39098</v>
+      </c>
+      <c r="K51" s="2">
+        <v>39113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>99887766</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52">
+        <v>99771122</v>
+      </c>
+      <c r="I52" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" s="2">
+        <v>39105</v>
+      </c>
+      <c r="K52" s="2">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>33456456</v>
+      </c>
+      <c r="I53" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" s="2">
+        <v>39083</v>
+      </c>
+      <c r="K53" s="2">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>99887766</v>
+      </c>
+      <c r="I54" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" s="2">
+        <v>39114</v>
+      </c>
+      <c r="K54" s="2">
+        <v>39119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>33456456</v>
+      </c>
+      <c r="I55" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="2">
+        <v>39114</v>
+      </c>
+      <c r="K55" s="2">
+        <v>39119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>33456456</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="2">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>44556689</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="2">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>99771122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="2">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>33456456</v>
+      </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="2">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>11223344</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="2">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>99887766</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="2">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>11223344</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" s="2">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>99887766</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" s="2">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>44556689</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="2">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>33456456</v>
+      </c>
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" s="2">
+        <v>38965</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>33456456</v>
+      </c>
+      <c r="B75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" t="s">
+        <v>63</v>
+      </c>
+      <c r="G75" s="2">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>44556689</v>
+      </c>
+      <c r="B76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" t="s">
+        <v>62</v>
+      </c>
+      <c r="F76" t="s">
+        <v>63</v>
+      </c>
+      <c r="G76" s="2">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>99771122</v>
+      </c>
+      <c r="B77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77" t="s">
+        <v>66</v>
+      </c>
+      <c r="G77" s="2">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>33456456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" t="s">
+        <v>67</v>
+      </c>
+      <c r="E78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" s="2">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>11223344</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" t="s">
+        <v>71</v>
+      </c>
+      <c r="F79" t="s">
+        <v>63</v>
+      </c>
+      <c r="G79" s="2">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>99887766</v>
+      </c>
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" t="s">
+        <v>63</v>
+      </c>
+      <c r="G80" s="2">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>11223344</v>
+      </c>
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" t="s">
+        <v>63</v>
+      </c>
+      <c r="G81" s="2">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>99887766</v>
+      </c>
+      <c r="B82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82" t="s">
+        <v>63</v>
+      </c>
+      <c r="G82" s="2">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>44556689</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G83" s="2">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>33456456</v>
+      </c>
+      <c r="B84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" t="s">
+        <v>68</v>
+      </c>
+      <c r="F84" t="s">
+        <v>63</v>
+      </c>
+      <c r="G84" s="2">
+        <v>38965</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>33456456</v>
+      </c>
+      <c r="B89" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" t="s">
+        <v>61</v>
+      </c>
+      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+      <c r="G89">
+        <v>33456456</v>
+      </c>
+      <c r="H89" t="s">
+        <v>61</v>
+      </c>
+      <c r="I89" t="s">
+        <v>63</v>
+      </c>
+      <c r="J89" s="2">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>44556689</v>
+      </c>
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" t="s">
+        <v>67</v>
+      </c>
+      <c r="E90" t="s">
+        <v>68</v>
+      </c>
+      <c r="G90">
+        <v>44556689</v>
+      </c>
+      <c r="H90" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" t="s">
+        <v>63</v>
+      </c>
+      <c r="J90" s="2">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>99771122</v>
+      </c>
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" t="s">
+        <v>71</v>
+      </c>
+      <c r="G91">
+        <v>99771122</v>
+      </c>
+      <c r="H91" t="s">
+        <v>61</v>
+      </c>
+      <c r="I91" t="s">
+        <v>66</v>
+      </c>
+      <c r="J91" s="2">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>11223344</v>
+      </c>
+      <c r="B92" t="s">
+        <v>69</v>
+      </c>
+      <c r="G92">
+        <v>33456456</v>
+      </c>
+      <c r="H92" t="s">
+        <v>67</v>
+      </c>
+      <c r="I92" t="s">
+        <v>66</v>
+      </c>
+      <c r="J92" s="2">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>99887766</v>
+      </c>
+      <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="G93">
+        <v>11223344</v>
+      </c>
+      <c r="H93" t="s">
+        <v>70</v>
+      </c>
+      <c r="I93" t="s">
+        <v>63</v>
+      </c>
+      <c r="J93" s="2">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>99887766</v>
+      </c>
+      <c r="H94" t="s">
+        <v>67</v>
+      </c>
+      <c r="I94" t="s">
+        <v>63</v>
+      </c>
+      <c r="J94" s="2">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="4"/>
+      <c r="G95">
+        <v>11223344</v>
+      </c>
+      <c r="H95" t="s">
+        <v>70</v>
+      </c>
+      <c r="I95" t="s">
+        <v>63</v>
+      </c>
+      <c r="J95" s="2">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>99887766</v>
+      </c>
+      <c r="H96" t="s">
+        <v>61</v>
+      </c>
+      <c r="I96" t="s">
+        <v>63</v>
+      </c>
+      <c r="J96" s="2">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>44556689</v>
+      </c>
+      <c r="H97" t="s">
+        <v>61</v>
+      </c>
+      <c r="I97" t="s">
+        <v>66</v>
+      </c>
+      <c r="J97" s="2">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="98" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>33456456</v>
+      </c>
+      <c r="H98" t="s">
+        <v>67</v>
+      </c>
+      <c r="I98" t="s">
+        <v>63</v>
+      </c>
+      <c r="J98" s="2">
+        <v>38965</v>
       </c>
     </row>
   </sheetData>

--- a/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica2.xlsx
+++ b/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anxoc\OneDrive\Escritorio\DAM 23-24\DAM-23-24\Bases de datos\1ªEvaluación\Ejercicios(FN)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC82D3CF-410C-4AC3-B383-2501D72E3BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB743240-65E3-4386-B059-5526FA6753C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC5F3012-9009-45C7-A759-13AFE07C2B70}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="91">
   <si>
     <t>codLibro</t>
   </si>
@@ -244,6 +244,60 @@
   </si>
   <si>
     <t>F.Monte</t>
+  </si>
+  <si>
+    <t>Ejercicio 11</t>
+  </si>
+  <si>
+    <t>cod_Activid</t>
+  </si>
+  <si>
+    <t>Nombre_Actividad</t>
+  </si>
+  <si>
+    <t>DNI_Monitor</t>
+  </si>
+  <si>
+    <t>Nombre_Monitor</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Hora_I</t>
+  </si>
+  <si>
+    <t>Hora_F</t>
+  </si>
+  <si>
+    <t>Piltates</t>
+  </si>
+  <si>
+    <t>J.Luis Hernandez</t>
+  </si>
+  <si>
+    <t>Pabellon Polideportivo</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>P. Garcia</t>
+  </si>
+  <si>
+    <t>Pilates</t>
+  </si>
+  <si>
+    <t>Yoga</t>
+  </si>
+  <si>
+    <t>Sala Multiusos</t>
+  </si>
+  <si>
+    <t>Gimnasia</t>
+  </si>
+  <si>
+    <t>Ana Sanz</t>
   </si>
 </sst>
 </file>
@@ -293,12 +347,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54E09B0-B9CE-4E9B-8886-EAB688E52118}">
-  <dimension ref="A2:K98"/>
+  <dimension ref="A2:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +2217,6 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="4"/>
       <c r="G95">
         <v>11223344</v>
       </c>
@@ -2190,7 +2244,7 @@
         <v>38964</v>
       </c>
     </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G97">
         <v>44556689</v>
       </c>
@@ -2204,7 +2258,7 @@
         <v>38964</v>
       </c>
     </row>
-    <row r="98" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G98">
         <v>33456456</v>
       </c>
@@ -2216,6 +2270,857 @@
       </c>
       <c r="J98" s="2">
         <v>38965</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>81</v>
+      </c>
+      <c r="C104">
+        <v>54332221</v>
+      </c>
+      <c r="D104" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" t="s">
+        <v>83</v>
+      </c>
+      <c r="F104" s="2">
+        <v>39334</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H104" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105">
+        <v>65434527</v>
+      </c>
+      <c r="D105" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105" t="s">
+        <v>83</v>
+      </c>
+      <c r="F105" s="2">
+        <v>39334</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H105" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106">
+        <v>54332221</v>
+      </c>
+      <c r="D106" t="s">
+        <v>82</v>
+      </c>
+      <c r="E106" t="s">
+        <v>83</v>
+      </c>
+      <c r="F106" s="2">
+        <v>39336</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H106" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107">
+        <v>54332221</v>
+      </c>
+      <c r="D107" t="s">
+        <v>82</v>
+      </c>
+      <c r="E107" t="s">
+        <v>83</v>
+      </c>
+      <c r="F107" s="2">
+        <v>39340</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H107" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108">
+        <v>65434527</v>
+      </c>
+      <c r="D108" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" t="s">
+        <v>88</v>
+      </c>
+      <c r="F108" s="2">
+        <v>39340</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="H108" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109">
+        <v>54332221</v>
+      </c>
+      <c r="D109" t="s">
+        <v>82</v>
+      </c>
+      <c r="E109" t="s">
+        <v>88</v>
+      </c>
+      <c r="F109" s="2">
+        <v>39356</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H109" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110">
+        <v>65434527</v>
+      </c>
+      <c r="D110" t="s">
+        <v>85</v>
+      </c>
+      <c r="E110" t="s">
+        <v>88</v>
+      </c>
+      <c r="F110" s="2">
+        <v>39340</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H110" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111">
+        <v>45673214</v>
+      </c>
+      <c r="D111" t="s">
+        <v>90</v>
+      </c>
+      <c r="E111" t="s">
+        <v>83</v>
+      </c>
+      <c r="F111" s="2">
+        <v>39356</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H111" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112">
+        <v>45673214</v>
+      </c>
+      <c r="D112" t="s">
+        <v>90</v>
+      </c>
+      <c r="E112" t="s">
+        <v>83</v>
+      </c>
+      <c r="F112" s="2">
+        <v>39334</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H112" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113">
+        <v>65434527</v>
+      </c>
+      <c r="D113" t="s">
+        <v>85</v>
+      </c>
+      <c r="E113" t="s">
+        <v>88</v>
+      </c>
+      <c r="F113" s="2">
+        <v>39334</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H113" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117">
+        <v>54332221</v>
+      </c>
+      <c r="E117" t="s">
+        <v>82</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>83</v>
+      </c>
+      <c r="I117" s="2">
+        <v>39334</v>
+      </c>
+      <c r="J117" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K117" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118">
+        <v>65434527</v>
+      </c>
+      <c r="E118" t="s">
+        <v>85</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118" t="s">
+        <v>83</v>
+      </c>
+      <c r="I118" s="2">
+        <v>39334</v>
+      </c>
+      <c r="J118" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K118" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>86</v>
+      </c>
+      <c r="D119">
+        <v>54332221</v>
+      </c>
+      <c r="E119" t="s">
+        <v>82</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119" t="s">
+        <v>83</v>
+      </c>
+      <c r="I119" s="2">
+        <v>39336</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K119" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>86</v>
+      </c>
+      <c r="D120">
+        <v>54332221</v>
+      </c>
+      <c r="E120" t="s">
+        <v>82</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>83</v>
+      </c>
+      <c r="I120" s="2">
+        <v>39340</v>
+      </c>
+      <c r="J120" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K120" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>87</v>
+      </c>
+      <c r="D121">
+        <v>65434527</v>
+      </c>
+      <c r="E121" t="s">
+        <v>85</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121" t="s">
+        <v>88</v>
+      </c>
+      <c r="I121" s="2">
+        <v>39340</v>
+      </c>
+      <c r="J121" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="K121" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>89</v>
+      </c>
+      <c r="D122">
+        <v>54332221</v>
+      </c>
+      <c r="E122" t="s">
+        <v>82</v>
+      </c>
+      <c r="G122">
+        <v>4</v>
+      </c>
+      <c r="H122" t="s">
+        <v>88</v>
+      </c>
+      <c r="I122" s="2">
+        <v>39356</v>
+      </c>
+      <c r="J122" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K122" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>87</v>
+      </c>
+      <c r="D123">
+        <v>65434527</v>
+      </c>
+      <c r="E123" t="s">
+        <v>85</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123" t="s">
+        <v>88</v>
+      </c>
+      <c r="I123" s="2">
+        <v>39340</v>
+      </c>
+      <c r="J123" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K123" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>89</v>
+      </c>
+      <c r="D124">
+        <v>45673214</v>
+      </c>
+      <c r="E124" t="s">
+        <v>90</v>
+      </c>
+      <c r="G124">
+        <v>4</v>
+      </c>
+      <c r="H124" t="s">
+        <v>83</v>
+      </c>
+      <c r="I124" s="2">
+        <v>39356</v>
+      </c>
+      <c r="J124" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K124" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125">
+        <v>45673214</v>
+      </c>
+      <c r="E125" t="s">
+        <v>90</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125" t="s">
+        <v>83</v>
+      </c>
+      <c r="I125" s="2">
+        <v>39334</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K125" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>86</v>
+      </c>
+      <c r="D126">
+        <v>65434527</v>
+      </c>
+      <c r="E126" t="s">
+        <v>85</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>88</v>
+      </c>
+      <c r="I126" s="2">
+        <v>39334</v>
+      </c>
+      <c r="J126" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K126" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>81</v>
+      </c>
+      <c r="D131">
+        <v>54332221</v>
+      </c>
+      <c r="E131" t="s">
+        <v>82</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
+        <v>83</v>
+      </c>
+      <c r="I131" s="2">
+        <v>39334</v>
+      </c>
+      <c r="J131" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K131" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>84</v>
+      </c>
+      <c r="D132">
+        <v>65434527</v>
+      </c>
+      <c r="E132" t="s">
+        <v>85</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132" t="s">
+        <v>83</v>
+      </c>
+      <c r="I132" s="2">
+        <v>39334</v>
+      </c>
+      <c r="J132" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K132" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
+        <v>87</v>
+      </c>
+      <c r="D133">
+        <v>45673214</v>
+      </c>
+      <c r="E133" t="s">
+        <v>90</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>83</v>
+      </c>
+      <c r="I133" s="2">
+        <v>39336</v>
+      </c>
+      <c r="J133" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K133" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>89</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>83</v>
+      </c>
+      <c r="I134" s="2">
+        <v>39340</v>
+      </c>
+      <c r="J134" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K134" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135" t="s">
+        <v>88</v>
+      </c>
+      <c r="I135" s="2">
+        <v>39340</v>
+      </c>
+      <c r="J135" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="K135" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>4</v>
+      </c>
+      <c r="H136" t="s">
+        <v>88</v>
+      </c>
+      <c r="I136" s="2">
+        <v>39356</v>
+      </c>
+      <c r="J136" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K136" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>3</v>
+      </c>
+      <c r="H137" t="s">
+        <v>88</v>
+      </c>
+      <c r="I137" s="2">
+        <v>39340</v>
+      </c>
+      <c r="J137" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K137" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>4</v>
+      </c>
+      <c r="H138" t="s">
+        <v>83</v>
+      </c>
+      <c r="I138" s="2">
+        <v>39356</v>
+      </c>
+      <c r="J138" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K138" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>83</v>
+      </c>
+      <c r="I139" s="2">
+        <v>39334</v>
+      </c>
+      <c r="J139" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K139" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>88</v>
+      </c>
+      <c r="I140" s="2">
+        <v>39334</v>
+      </c>
+      <c r="J140" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K140" s="5">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica2.xlsx
+++ b/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anxoc\OneDrive\Escritorio\DAM 23-24\DAM-23-24\Bases de datos\1ªEvaluación\Ejercicios(FN)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB743240-65E3-4386-B059-5526FA6753C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B397B9CF-DBFB-4F3E-A767-A6AE575DFFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC5F3012-9009-45C7-A759-13AFE07C2B70}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="91">
   <si>
     <t>codLibro</t>
   </si>
@@ -668,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54E09B0-B9CE-4E9B-8886-EAB688E52118}">
-  <dimension ref="A2:K140"/>
+  <dimension ref="A2:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" topLeftCell="B101" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,6 +2563,11 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>74</v>
@@ -2882,7 +2887,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>74</v>
       </c>
@@ -2898,20 +2908,23 @@
       <c r="G130" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H130" s="4" t="s">
+      <c r="H130" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I130" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="J130" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="K130" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K130" s="1" t="s">
+      <c r="L130" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -2927,20 +2940,23 @@
       <c r="G131">
         <v>1</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131">
+        <v>54332221</v>
+      </c>
+      <c r="I131" t="s">
         <v>83</v>
       </c>
-      <c r="I131" s="2">
+      <c r="J131" s="2">
         <v>39334</v>
       </c>
-      <c r="J131" s="5">
+      <c r="K131" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K131" s="5">
+      <c r="L131" s="5">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2</v>
       </c>
@@ -2956,20 +2972,23 @@
       <c r="G132">
         <v>2</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132">
+        <v>65434527</v>
+      </c>
+      <c r="I132" t="s">
         <v>83</v>
       </c>
-      <c r="I132" s="2">
+      <c r="J132" s="2">
         <v>39334</v>
       </c>
-      <c r="J132" s="5">
+      <c r="K132" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K132" s="5">
+      <c r="L132" s="5">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -2985,20 +3004,23 @@
       <c r="G133">
         <v>1</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133">
+        <v>54332221</v>
+      </c>
+      <c r="I133" t="s">
         <v>83</v>
       </c>
-      <c r="I133" s="2">
+      <c r="J133" s="2">
         <v>39336</v>
       </c>
-      <c r="J133" s="5">
+      <c r="K133" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="K133" s="5">
+      <c r="L133" s="5">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -3008,118 +3030,139 @@
       <c r="G134">
         <v>1</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134">
+        <v>54332221</v>
+      </c>
+      <c r="I134" t="s">
         <v>83</v>
       </c>
-      <c r="I134" s="2">
+      <c r="J134" s="2">
         <v>39340</v>
       </c>
-      <c r="J134" s="5">
+      <c r="K134" s="5">
         <v>0.5</v>
       </c>
-      <c r="K134" s="5">
+      <c r="L134" s="5">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G135">
         <v>3</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135">
+        <v>65434527</v>
+      </c>
+      <c r="I135" t="s">
         <v>88</v>
       </c>
-      <c r="I135" s="2">
+      <c r="J135" s="2">
         <v>39340</v>
       </c>
-      <c r="J135" s="5">
+      <c r="K135" s="5">
         <v>0.375</v>
       </c>
-      <c r="K135" s="5">
+      <c r="L135" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G136">
         <v>4</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136">
+        <v>54332221</v>
+      </c>
+      <c r="I136" t="s">
         <v>88</v>
       </c>
-      <c r="I136" s="2">
+      <c r="J136" s="2">
         <v>39356</v>
       </c>
-      <c r="J136" s="5">
+      <c r="K136" s="5">
         <v>0.5</v>
       </c>
-      <c r="K136" s="5">
+      <c r="L136" s="5">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G137">
         <v>3</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137">
+        <v>65434527</v>
+      </c>
+      <c r="I137" t="s">
         <v>88</v>
       </c>
-      <c r="I137" s="2">
+      <c r="J137" s="2">
         <v>39340</v>
       </c>
-      <c r="J137" s="5">
+      <c r="K137" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K137" s="5">
+      <c r="L137" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G138">
         <v>4</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138">
+        <v>45673214</v>
+      </c>
+      <c r="I138" t="s">
         <v>83</v>
       </c>
-      <c r="I138" s="2">
+      <c r="J138" s="2">
         <v>39356</v>
       </c>
-      <c r="J138" s="5">
+      <c r="K138" s="5">
         <v>0.5</v>
       </c>
-      <c r="K138" s="5">
+      <c r="L138" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G139">
         <v>2</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139">
+        <v>45673214</v>
+      </c>
+      <c r="I139" t="s">
         <v>83</v>
       </c>
-      <c r="I139" s="2">
+      <c r="J139" s="2">
         <v>39334</v>
       </c>
-      <c r="J139" s="5">
+      <c r="K139" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K139" s="5">
+      <c r="L139" s="5">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G140">
         <v>1</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140">
+        <v>65434527</v>
+      </c>
+      <c r="I140" t="s">
         <v>88</v>
       </c>
-      <c r="I140" s="2">
+      <c r="J140" s="2">
         <v>39334</v>
       </c>
-      <c r="J140" s="5">
+      <c r="K140" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K140" s="5">
+      <c r="L140" s="5">
         <v>0.5</v>
       </c>
     </row>
